--- a/Monthly_Board.xlsx
+++ b/Monthly_Board.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dfhfdh</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -556,26 +556,10 @@
           <t xml:space="preserve"> Khabib      </t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Works</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,7 +574,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>shdsf</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -605,7 +589,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Finished</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -628,26 +612,10 @@
           <t xml:space="preserve"> Khabib      </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Hello world</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -662,7 +630,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hdshsdfh</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -677,7 +645,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Finished</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -701,501 +669,9 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sdfhsdh</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>dsfhsdh</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Ba</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Hello</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sdhf</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>PAID</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jbhunt</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>34573474574575</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Brandon</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3801 MCINTYRE CT GOLDEN CO8040,1, - GOLDEN,Colorado 80401 - 3525 S EAST AVE, FRESNO,California 93725</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2024-01-27 00:01  -  22:00      </t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2300     </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1136      </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khabib      </t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
